--- a/Testdata/TC_Unit Manipulation_05.xlsx
+++ b/Testdata/TC_Unit Manipulation_05.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>djUAAB+LCAAAAAAAAAPtW1tv48YV/iuEnhKg8pCS75llIEuyK1QXw5Kz67wsxuTIZk2RKi+29ZY+FAHSC1A0CZBekYeiQYCm+5AW292i/S/B2ps+9S/0zAwvQ4pai9ot2gJeGFjNuczlzJlzvjMa4XevJ7ZyST3fcp0HFW1NrSjUMVzTcs4eVMJgXNU2K+/quH1tUPuQeGRCAxBWQMvxd69960HlPAimuwhdXV2tXdXXXO8M1VRVQ4963aFxTiekajl+QByDVhIt826tio6b5qRHA2KSgAjNB5XOsLPWpJbRAlqPOOSMemt7oW851PfbTmAFFvWZpkdJQJut3ntiYXptbXNNw2iOnkruhZZtCrmMpKBHcjAsHVkTqtfUmlrValW1PtLU3Xp9V6utaWrt/VgxEcRd4gdD6l1aBicMAzKZcnWtptY1tV7XahgVCkFfqQF0PLDNI3pp+dRsUtv2S1kERRvYMAJYdTljqhhJulFHq0/hwCPT85EV2LSs+r7rUQMMtdLYfXo18CL7jaZd4I7OLS+YtcisdF/HPvUGU2aNcqo6brlO0LCpFxxPYVOpCXsODD3wQorRAmaq1LJ8Az5bTkhNfUxsX1bKMPFD17vwp8SgfTiwiPVx5dguMcGzAssPLCMddI6BDz13Cj3C4Huube5Dr5FwASPpueOAidmwe657kc6uiIm5D3BvgD2dkCAWn6Pj4bl7NXDs2TA89Q3POqVmay+WLuRhdvIi7WboB+4EZpGSsKBJlBn8g5OWJ+MWNawJsQ9tMKKv16GXDAE3wsAdW0HTtcOJ48dzylHxQ1jRiF4nK0zaeACb6zCju07HieWFmQtZWYUj9yoZc57BjSCRG74Rb/c8Iy/cAlq8ffMcviNslfuWDYlA3guJmvWK4TmlQaFLCA5mMW+fpRZ9b8bGxCilYPBM8G6g6ixBVPnfSFV3+R+MnLBx2zEjOY0H57osFzNxP5wMTuEEX/I16RrwciQMq7D3bOJcAPWhFZz3G/HsCzhYrHmh/DwPw1md2mTGyYldZBruOIYdmlSEgI4z5k7J5ia2cSEbz5G6cKp1TJzZaDaFkOtbuwF8eFCBJLzrBx6k+YpuuKETeDMWKzCKRO/S8cNThw9A7KV1xh79QQjoYrYfOkbTNZcfzRTWOXasYPkZuqEnAuDyKtx6LBaGfouyqMLD/NL6Rpk1+V4p8YlDJ65jGctbG4zMZm+usBA/PlVLa1BxvpaWtyGTi0THzvrSah5AQ0htpYZp+L5rWNxZo+NhSvpowZFp0TEJbYBlASTVsyTa5sm44V/kZWQSPvbsOObpDPT6gHoNc7JmAFxgyG7NcCeMgABsPhxiJMszzGPQtnPWJc5ZCKgiiSt5ehJxWUYcecTx2XISEJELvsVCOI5TAtzoIngNQu4IIni5wMUoJ4dHdDJ1PWL3wDDWfuR2EUIC8NEjwXnUgmxmUyM2MkpVE63szOKJ3yXG05JYBjvwUZjMEbkQW4vA16lMSsNslT04lnaT2NapJ6JqnLyLeLBhKRyM4y9bXEloGO8B1FiQb79HZwx4p42Izl1WixnCgVkg1YdH69u1DXVjA7AMa2O+4gP3MlAA9VJAhUpVGZFr5R2l45jWpWWGxIaP4HywMmGeKAWV0pR18H4c3/kUGjDPLCUrAMjizIL0MS+YcFIF/YQSz55JgmKJXdcAuduP/3Hz7Ne3H//l5ke/r7784mc3H33+r7/98sXTL188eyaoYo1CGo/IqU35jEZ729tqfR0cLCFhZlXEUbAZGgGnnZxw8Ju0cVSs8Uaz3WkedPd4IEmIsbrIJYjVgTM3TJtDsQo+EN9LFLuAENFHcWCK2hmulJt0Vpdd0qy0zF+kKGzx8vkfXj7/40LtyGApyNJ2drZ54Xs3BtPm5BIM1s0Efya8XlU3qrWaJJyTwUci8id26pg61M87qralakkQNxMvLhLKs6KeRuQM5fQEqSlwUeICcjtmcs8fUT9I2OIsSI3IR//842//9ElGKrJuRMn2ApPj+IUNhuIG77p/NFKGg+OjZlsZtYfMT1KeJCc6f4VwNHpyoDJO5Thwyr+jQFaHLKZUoPipKO5YocQ4V2ZwFKWDmHG2IqoYaMUu87M88NxwKnZEUkipBZJJOCnUKAg2nMftORd1UlaBuJjrzV+/LlKIFtJKkax+1NtTJk7il5yGMxxBkvjRqf3s7y+efsiC25Of3zz9YaaHaJzkBgD8HE6T3EzcHkJelGhyFPxwyI15oT6WEktEZBXUoWs5ga9r67x4iloYVDXWG/8fdyaQ63jH3F5Az1Hwd4nfvg6ig633McoSYJ5TAmnWTcvMhCBieGrXf/7mt7e/+vr20yfffvjlzUdf3Pzk05fPf/ftV5+LU3f7yZPbn34VRfl8IuBzYcWrQH8KvwoxFHYaFZa0lW8++IXiuIECWEMJeUT65oPPpM7YRDkqSXsGLJdMJDuFOVFZmekp0lSSOWT0EhWR+ZsshdUTiSiJuVPLSAd5v8q6YueOM97qjKqhTxUXYNTbsJKscKq8rF6kIlLq4ZZaY5eaKYldMZBT4kumP7DdU4ARMYPfNeREMlqvVkhl+XgH3cFeo5uKiEkMPJN6zA3FB9zxYzQZu5dEAS6gPCO02ZXQnNg8C8efpNCForuVccNkIU9Xi+4vMhK4GXqeQEFOdCc/DKeAfOMbuMV8fispgd2+AKYy/E3bnVaWD22JC8kvy2YEzufhKGKJ0NTx2TWOwK59Zpq0CbzMTSaYI7p2F+gKkCT1EIs1bc9zvcKAk3JisR7AZogiKLV4IoPYkAJim+lexYQ4yN1D7XuofQ+176H2PdS+h9pLQO0CxfIIW1uMsLXHm9tGva5uqFV1y9isro/pVnVnWzOqWwZVd7RNskG00/8C+I43q+BLhoVzWD4rrbLvr3LFgq1805H0tXP2q4PpHUHu7poNvWLH7iup+0rqTVdSWlJJxUjcF3f9uW8AIBiZ+nG/M3rca/Q7h8fdxqgzYLUCQxBSQhMix91R57DbaR+91bNsG+jvKKLYCRRi28qEfcUwtS0oJN5mX8ZI+TB9nSSmkbQj3A7n/YwGvaSDGL6/R+yQ6j2YkfjEUaneHPSHo0Yf0nj0NVGuy6IRyHRq8wyxaJDR0XG73DBIXpWAr/kiRKImO5FGxoZnBefQgWUMplR8Z+FDCJ2TS1RZsZcqKUVavB7Ml9NROHKFAl21vEKi2ECZeItyqSXfjiOfTEdS1YKkQgQVlR0oU2eg164p0MJaYDEnnmmamAovDAryVqHcogqgUPjuCiAP2zlleVCPMgkOzYP2lIQW4nE0B7pRMQxeQJ5TSdy/kFjkVQk4KSTGA0hgEQlsguahJXozl7RIxmPqa0HC5VECkghoPmtnSSiTZlE+pcoEJOU/VJDtcjSUTVcoikro/+1yLxr7f/l2D61yn4fe3LWdlFha1nh8AhDyUfp2KiaIGae9sIbIqXOgBEmoRfKN6IHVm3WWVbBNUTf398ll75OXL6//I1fNKH0PkiKkFrUB0JV9dRxr99zLlXXBLcqqdvyBbUZ2LvekJTFL2oH8Bpz5UNnJNDwPEAZ7NFr60XbXci465Vav1+n2eIea26aqrq9vbe1oxuYGUccbO5pGaQ0KRdEpKwZYFxPAgex9ULlBNBafZPX0LdcRcc5K9iYMzBXZeyewFD+rUeWbtPG+5fnBIwYCok+CcpJQTgRwfKRHP094JNonen1DEEAAyYOhzKzj0BOInwu4dteaWCXfRKlxfMp2Am4wnQocWHZDm61en14HGEk9AGY4/T7AE/GIsExv4lRBAZTox30Nw9PS3aFY+RD4zLFW026bAC9X1+aP7y37NSbAQeWqXXQc3zo7D8ruq7llmOYpUauUrNPq+tZmvbrN7vLWjW1tZ0cj2nZth72ajjqHxGHRq5KDsHRj+SGxy+uh3K+n9H8DTt+kDXY1AAA=</t>
+          <t>ADYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSLStehFO6nOWsDpclT5J9SUEkJGHNQ8vDtv79NgAeIEUlouLZfVinXBWhLwCNRvfXFIV/f/Vc7ZmGEQv8TxfGpX6hUd8OHOZvPl0k8bpldC9+N/H41abuPQmJR2MQ1kDLj25fI/bpYhvHu1uEXl5eLl86l0G4QW1dN9DX6WRhb6lHWsyPYuLb9CLXcn6udWHioeNNaUwcEhOp+enCWliXQ8rsEdCmxCcbGl4Okoj5NIrGfsxiRiOuGVIS0+Fo+qfcmNm+7F4aGB3QC8lBwlxHypUkJT2Vg2npknnUbOttvaXftIzOUr++vb66NcBzevefmWIuiCckihc0fGa2ICxi4u2Eun5jdPTr6ysDZqsVAluFA0w8d50H+swi6gyp60aNPILSA+zbMey6mTN1jBTd1ND5S/gckt12yWKXNlW/C0Jqg6POmntGX+Zh6r/lbgLc5ZaF8X5E9o1tPUY0nO+4N5qpmngU+HHfpWH8uINDpQ6cOTDMOEwoRkeYhdKIRTZ8Zn5CHXNN3EhVKjHxlyB8inbEpjO4sIjbePHdgDgQWTGLYmYXkx4w8H0Y7MAiTD4IXOcOrKbCNYzcsuWDi/m0gyB4KlZXx8QiBkQ0wJl6JM7ED+h4sQ1e5r67XySryA7ZijqjQSZdy8P85qXawySKAw9WUZCwpCmU6RTt4R9ctioHj6jNPOLeu+DHyOyAoRIB95M4WLN4GLiJ50fZsipU/AU2taSv+SbzMZ7D+frc74Fv+Zm89HQtq6zwELzkcx4yhB8Ucj+ysxM/ZFSFR0DLTvCQIw6F7/KOuVAL1ONQqOXAWGwpjWujQnIwT3t3vLqYgz2fE6OCgiE4IcCBavIa0RJ/S12/FX8wc87GY99J5Qy9ZbRbHVUuY+JZ4s1XcImfxZ5MA3gVEoZduAOX+E9A/cLi7ayfrb6Gg+Wej8of8jBc151L9oKc+0WlYcu33cShMgtY/loEJV+bPMajbHxAmsDFNjHx98v9DrJuxG5j+PDpAurwbRSHUOkvTDtI/Djc83SBUSr6M50oWfliAuKerLMO6b8TABj7u8S3h4Fz+myO9M6jz+LTVxgkocyBp6sI7/F0mEQjyhOLyPQn69tN9hSFjcQ9n3qBz+zTvQ1O5qt3zthIlN2qkzWovF8ny7tQzGWt43f9ZLUQ0CFUt0bT9KMosJkI1vR6OIo+OnJlRnRNEheQWQx1dZNn2yoZ96OnqoxKwo+hm+U8k+PeCICv7XiXNiAGDu4u7cDjBAR488sCI1Wewx6bjv3NhPibBIBFnleq9Dzj8qK4DIkf8e3kOKKSfOuFcJanJL4xZfKaJyIQZPIKgItRRQ4vqbcLQuJOwTHsLg27FCQB/piSeJuOoJq51M6cjArVXKu8smzhPxMTZUlug1/4NE1WiEKI70VC7EKmoGG+yylcS3dIXLYKZVbNincdDw6sQIRZ/uWba4gOszOANgvq7T/onmPvYpDSRcgaGUMGME+k5uLhqnfTu+q0AcvwMRY7/jAa/ga4zUmE0261CYP8u2bU0WaQ4sCf2mcS3WrT6WD5CGVQOCktRGfoq5r4Lsv1YjlTCNkSocwHkLFhUEkO5HJGIW9OAXpu3b0iKXc7CWwQ/AA3L9hpD8xlkVz7EyQGvk6t7xJPGxIWlnYs1fCSrFwqlrYc9Hq9jzcQdDkJc08jAY65LwTNGs0EKM4JOG3ixGA4tob3D1ORXXJipi8LDOL94T5IiuFC7kfMJA4YZXEhRcxhlq3ScYmrFCxTbQjKOqrUMXXpEsWRR02kzithtO6JGK3NMZpei9EmpeKQNtxg9KMiXJHBD7Iy5C6zoKGHBrvd0fV2nuSdPL7rhKqs1NKSbFBFT5KGEjel4cBvXjHOmOI2WL4TwH1nJJeRl0QZSE/WC6ZeTik1QrBSAXb4zCgbiClGDPrmGFJnTLXP1Kf8zgZrbc5cjfgOvxbgm0JcUZWTcv0noa/9ASVe6E+ZvydPmkN8ca0GicdUI+lq89upRtzh3S3FYx1VmvuhYnXGz2GQ7A7yTkGtkazNQIfciqbw2eHSCl6NvFzsIIEaSvw6pXQ3owLymtOZBvlKi7d5jAoyrjIlVRGRtv5IYiJkHtgqKZlI58qfGEDQw9VSh/kdgFyYVqUKBX9ZCK8+6d+VKpQSebt1HzA/jszelei00hEGVYNbE/9jy4PCKAwLvwG9QsF/J9H4NU5vuQm5t0yAde4IhGlQ9KQ5QSb3wrcwpK5mjS4fBgPduLrVjtQJrVRM0oJQrRlideLTgcUfVU3tg5qjVeN8K0KzmClbnzaGG7zht60qoeqYQmqvrKGkkMtK4DCEate7ySXSehfsmF1YX4gckM9e4RbS2cwLkXMUwVRG1tf7Xvdjx0i5cj4OjlYkojWZELZBPZZ4WiYjnktUpEsGTtYt1GQKn43ms/HC6hdScnXzEBIfj0n5AVtRhkOzWFMowAV8aMP9jumh2CELZ5+UhIbSpzLrvsOfxZt63ZOPkgQeJmEoUZOfPtBfJDvAzPmDl+MC4pmmgpNnEtOqyLkYW6MyH8YKF+pimc0Jgi9SU8qSacqK+BMgCXtn3DfFEHil56Dgj/ShvQRhzwzOAfHMMw7DIKxNPwUnE5sC4oacggqX5zKITynRuVMcVkbIUt47Sn9H6e8o/R2lv6P0d5Reg9I5wvb8Ooiecf4L+Nw4js+N7zolTocYTov24K5edds3rd4NXbWujZv1zU27t3Ls3v8AumcHV/N9xtE1nFy5zgqBH4VlfdP11sn1jQr8j7PsKdnv5/0f+sH5vXdl713ZX9qVGXlXloH6SH7jUPkeAvKUYz7OrOX3aX9m3T9O+ktrztsODjaU6iZFHidL635ijR8+TJnrAv1vmuybYo24rubxLzp2LoOe5Df+lZBSHIvXpOQy8nHaAkAe2NB4mhvIOoE/iZtAyoEVyU8CzJrD+Wyx7M+WcCzyy6qKyboZyG7niuJxbJLlw+O42TRI3ZUEvdV+RqHmJ1EkzX7I4i0YYPZ8R+U3JwBpDuVyVd43FkpanZZoLauteZqbAqlAz+3UkGxWUCkPo0rVqY6zNKjSkdL1IKV/QXXdCip1J+iXOxF0tHc4zslWWhSs2ocPNfWsVu5Ys1Ar/PNmoYrwBeV0/I9KJQ8dQvuChI6idXSAv1E9Jj5CPlDJw7+WWBdVOW6pJWYTKDgSSdiCDsEnepunv0iFavovocXTIQNSCOiwQJdJqFRhUbWaqgSkFEZUUwYrNFSuWCjNSuj9QeGbPyhE5zwaRG/3BFApLCO2Xn8DpPu1eIMrI8gVF1b4QNbUA1CCFNSixEb6mtfbBss52KbOzP9XyL3Js+nTW++/5LE1Kl5LKSDSiLqA6Jq+/5xpT4Pns3UhLpqqWtHcdVI/N3uzJndLYUB9G53HUNPF9MMQIAZ/d7Xx6+MT5j9ZzXZvttfOFaWk3TO6+sfOzarXNjpr+/q62+u127yhl0Z5N8BNeAAE+WtKzSYxeIJS1YtXyh6Iv2loTTpYKPLXrsBT8jknKPFXrrIxvmNhFH/lKCD9JCnfcso3iRy/mm0JD7/K8Tezdy0JIIDUyVBp1VnuieUPFwJ3wjzW8NUsPctPZSMQBrudBIJND3Q4ms7oa4yRYgFAw+pfgE/ku4xNrMlbBR1Qrp/ZWiSrxuZQpnwPfB5Y52mPHcCX52uLnwEw9xcWIFDluSYsP2Kbbdz0XI0epPXrzk1r3e2tWlcfIdH3er1uq0v1To909S61Od7NjEPhYPSl4SS83LAoIW5zPVT5HZf5H8NItUoANgAA</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>BTU mn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1231.927</v>
+        <v>93374639.80349998</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679724092.33</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221233.46731452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761771</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600717</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654157</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>727.63</v>
+        <v>80465449.01000001</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2026.83</v>
+        <v>112482419.51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1181.145</v>
+        <v>92555497.44499999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>791.02</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102584641.7</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>767.73</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93467549.44</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>727.63</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98607012.12</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>922.91</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97395643.67</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1126.49</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92075124.37</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95232238.19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100047707.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95307240.11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89917837.98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98395832.31999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98170134.28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1235.8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98568948.26000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95524249.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83617022.68000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98607012.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87313592.92</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89092122.78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83580496.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89062827.19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93159997.09999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86589082.23999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93035870.52</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91356150.84</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1482.71</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95688737.97</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96328946.90000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98953753.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90097772.22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82155807.94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90612214.28</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83468699.56</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85880465.27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88071952.06</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86411658.09999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85863463.56999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87911156.02</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1598.61</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91789908.22</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92030371.78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80465449.01000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81558517.88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81657461.19</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83308785.29000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84839490.19</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90413667.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85945567.43000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84672439.13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85370544.01000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86578438.8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1639.54</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97156656.67</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97289108.38</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94671436.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110403243.14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99640668.65000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110055816.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94930029.68000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111079159.33</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112482419.51</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105503178.11</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107765025.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101364036.07</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2026.83</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109354009.38</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABF3E8DE-EE43-41A6-B94E-BAFA9F520DD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62D4525A-D0EC-4DCD-B858-78863188AE08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
